--- a/SOCE.Library/SOCE.Library.UI/Resources/AddServiceTrackingLog.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/AddServiceTrackingLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C697FB0-415E-4304-AE82-E5DCDA33E5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A998C-7C35-4859-8E71-FE454320F023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7582424E-4BD4-4616-9B70-471CF97165EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7582424E-4BD4-4616-9B70-471CF97165EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Service List" sheetId="5" r:id="rId1"/>
@@ -662,9 +662,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
@@ -787,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -889,10 +888,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -915,6 +910,20 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1444,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0746D5-2EAF-495B-B809-5D2BF6F22613}">
-  <dimension ref="C1:L101"/>
+  <dimension ref="C1:L124"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,13 +1517,13 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="27"/>
       <c r="I6" s="15"/>
       <c r="J6" s="10"/>
@@ -1599,7 +1608,7 @@
       <c r="E13" s="31"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="47"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
@@ -1608,7 +1617,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="47"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
@@ -1617,7 +1626,7 @@
       <c r="E15" s="31"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="47"/>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
@@ -1626,7 +1635,7 @@
       <c r="E16" s="31"/>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="47"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -1635,7 +1644,7 @@
       <c r="E17" s="31"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="47"/>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
@@ -1644,7 +1653,7 @@
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="47"/>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
@@ -1653,7 +1662,7 @@
       <c r="E19" s="31"/>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="47"/>
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
@@ -1662,7 +1671,7 @@
       <c r="E20" s="31"/>
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="20"/>
       <c r="J20" s="5"/>
     </row>
@@ -1672,7 +1681,7 @@
       <c r="E21" s="31"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="20"/>
       <c r="J21" s="5"/>
     </row>
@@ -1682,7 +1691,7 @@
       <c r="E22" s="31"/>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="39"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="20"/>
       <c r="J22" s="5"/>
     </row>
@@ -1692,7 +1701,7 @@
       <c r="E23" s="31"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="20"/>
       <c r="J23" s="5"/>
     </row>
@@ -1702,7 +1711,7 @@
       <c r="E24" s="31"/>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="20"/>
       <c r="J24" s="5"/>
     </row>
@@ -1712,7 +1721,7 @@
       <c r="E25" s="31"/>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="20"/>
       <c r="J25" s="5"/>
     </row>
@@ -1722,7 +1731,7 @@
       <c r="E26" s="31"/>
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="20"/>
       <c r="J26" s="5"/>
     </row>
@@ -1732,7 +1741,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="20"/>
       <c r="J27" s="5"/>
     </row>
@@ -1742,7 +1751,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="47"/>
       <c r="I28" s="20"/>
       <c r="J28" s="5"/>
     </row>
@@ -1752,7 +1761,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="47"/>
       <c r="I29" s="20"/>
       <c r="J29" s="5"/>
     </row>
@@ -1762,7 +1771,7 @@
       <c r="E30" s="31"/>
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
-      <c r="H30" s="39"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="20"/>
       <c r="J30" s="5"/>
     </row>
@@ -1772,7 +1781,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="39"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="20"/>
       <c r="J31" s="5"/>
     </row>
@@ -1782,7 +1791,7 @@
       <c r="E32" s="31"/>
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="47"/>
       <c r="I32" s="20"/>
       <c r="J32" s="5"/>
     </row>
@@ -1792,7 +1801,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="30"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="39"/>
+      <c r="H33" s="47"/>
       <c r="I33" s="20"/>
       <c r="J33" s="5"/>
     </row>
@@ -1802,7 +1811,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="20"/>
       <c r="J34" s="5"/>
     </row>
@@ -1812,7 +1821,7 @@
       <c r="E35" s="31"/>
       <c r="F35" s="30"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="47"/>
       <c r="I35" s="20"/>
       <c r="J35" s="5"/>
     </row>
@@ -1822,7 +1831,7 @@
       <c r="E36" s="31"/>
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="39"/>
+      <c r="H36" s="47"/>
       <c r="I36" s="20"/>
       <c r="J36" s="5"/>
     </row>
@@ -1832,7 +1841,7 @@
       <c r="E37" s="31"/>
       <c r="F37" s="30"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="47"/>
       <c r="I37" s="20"/>
       <c r="J37" s="5"/>
     </row>
@@ -1842,7 +1851,7 @@
       <c r="E38" s="31"/>
       <c r="F38" s="30"/>
       <c r="G38" s="31"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="20"/>
       <c r="J38" s="5"/>
     </row>
@@ -1852,7 +1861,7 @@
       <c r="E39" s="31"/>
       <c r="F39" s="30"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="47"/>
       <c r="I39" s="20"/>
       <c r="J39" s="5"/>
     </row>
@@ -1862,7 +1871,7 @@
       <c r="E40" s="31"/>
       <c r="F40" s="30"/>
       <c r="G40" s="31"/>
-      <c r="H40" s="39"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="20"/>
       <c r="J40" s="5"/>
     </row>
@@ -1872,7 +1881,7 @@
       <c r="E41" s="31"/>
       <c r="F41" s="30"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="47"/>
       <c r="I41" s="20"/>
       <c r="J41" s="5"/>
     </row>
@@ -1882,7 +1891,7 @@
       <c r="E42" s="31"/>
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
-      <c r="H42" s="39"/>
+      <c r="H42" s="47"/>
       <c r="I42" s="20"/>
       <c r="J42" s="5"/>
     </row>
@@ -1892,7 +1901,7 @@
       <c r="E43" s="31"/>
       <c r="F43" s="30"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="39"/>
+      <c r="H43" s="47"/>
       <c r="I43" s="20"/>
       <c r="J43" s="5"/>
     </row>
@@ -1902,7 +1911,7 @@
       <c r="E44" s="31"/>
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="39"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="20"/>
       <c r="J44" s="5"/>
     </row>
@@ -1912,7 +1921,7 @@
       <c r="E45" s="31"/>
       <c r="F45" s="30"/>
       <c r="G45" s="31"/>
-      <c r="H45" s="39"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="20"/>
       <c r="J45" s="5"/>
     </row>
@@ -1922,7 +1931,7 @@
       <c r="E46" s="31"/>
       <c r="F46" s="30"/>
       <c r="G46" s="31"/>
-      <c r="H46" s="39"/>
+      <c r="H46" s="47"/>
       <c r="I46" s="20"/>
       <c r="J46" s="5"/>
     </row>
@@ -1932,7 +1941,7 @@
       <c r="E47" s="31"/>
       <c r="F47" s="30"/>
       <c r="G47" s="31"/>
-      <c r="H47" s="39"/>
+      <c r="H47" s="47"/>
       <c r="I47" s="20"/>
       <c r="J47" s="5"/>
     </row>
@@ -1942,7 +1951,7 @@
       <c r="E48" s="31"/>
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="39"/>
+      <c r="H48" s="47"/>
       <c r="I48" s="20"/>
       <c r="J48" s="5"/>
     </row>
@@ -1952,7 +1961,7 @@
       <c r="E49" s="31"/>
       <c r="F49" s="30"/>
       <c r="G49" s="31"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="47"/>
       <c r="I49" s="20"/>
       <c r="J49" s="5"/>
     </row>
@@ -1962,7 +1971,7 @@
       <c r="E50" s="31"/>
       <c r="F50" s="30"/>
       <c r="G50" s="31"/>
-      <c r="H50" s="39"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="20"/>
       <c r="J50" s="5"/>
     </row>
@@ -1972,7 +1981,7 @@
       <c r="E51" s="31"/>
       <c r="F51" s="30"/>
       <c r="G51" s="31"/>
-      <c r="H51" s="39"/>
+      <c r="H51" s="47"/>
       <c r="I51" s="20"/>
       <c r="J51" s="5"/>
     </row>
@@ -1982,7 +1991,7 @@
       <c r="E52" s="31"/>
       <c r="F52" s="30"/>
       <c r="G52" s="31"/>
-      <c r="H52" s="39"/>
+      <c r="H52" s="47"/>
       <c r="I52" s="20"/>
       <c r="J52" s="5"/>
     </row>
@@ -1992,7 +2001,7 @@
       <c r="E53" s="31"/>
       <c r="F53" s="30"/>
       <c r="G53" s="31"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="47"/>
       <c r="I53" s="20"/>
       <c r="J53" s="5"/>
     </row>
@@ -2002,7 +2011,7 @@
       <c r="E54" s="31"/>
       <c r="F54" s="30"/>
       <c r="G54" s="31"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="47"/>
       <c r="I54" s="20"/>
       <c r="J54" s="5"/>
     </row>
@@ -2012,7 +2021,7 @@
       <c r="E55" s="31"/>
       <c r="F55" s="30"/>
       <c r="G55" s="31"/>
-      <c r="H55" s="39"/>
+      <c r="H55" s="47"/>
       <c r="I55" s="20"/>
       <c r="J55" s="5"/>
     </row>
@@ -2022,7 +2031,7 @@
       <c r="E56" s="31"/>
       <c r="F56" s="30"/>
       <c r="G56" s="31"/>
-      <c r="H56" s="39"/>
+      <c r="H56" s="47"/>
       <c r="I56" s="20"/>
       <c r="J56" s="5"/>
     </row>
@@ -2032,7 +2041,7 @@
       <c r="E57" s="31"/>
       <c r="F57" s="30"/>
       <c r="G57" s="31"/>
-      <c r="H57" s="39"/>
+      <c r="H57" s="47"/>
       <c r="I57" s="20"/>
       <c r="J57" s="5"/>
     </row>
@@ -2042,7 +2051,7 @@
       <c r="E58" s="31"/>
       <c r="F58" s="30"/>
       <c r="G58" s="31"/>
-      <c r="H58" s="39"/>
+      <c r="H58" s="47"/>
       <c r="I58" s="20"/>
       <c r="J58" s="5"/>
     </row>
@@ -2052,7 +2061,7 @@
       <c r="E59" s="31"/>
       <c r="F59" s="30"/>
       <c r="G59" s="31"/>
-      <c r="H59" s="39"/>
+      <c r="H59" s="47"/>
       <c r="I59" s="20"/>
       <c r="J59" s="5"/>
     </row>
@@ -2062,7 +2071,7 @@
       <c r="E60" s="31"/>
       <c r="F60" s="30"/>
       <c r="G60" s="31"/>
-      <c r="H60" s="39"/>
+      <c r="H60" s="47"/>
       <c r="I60" s="20"/>
       <c r="J60" s="5"/>
     </row>
@@ -2072,7 +2081,7 @@
       <c r="E61" s="31"/>
       <c r="F61" s="30"/>
       <c r="G61" s="31"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="47"/>
       <c r="I61" s="20"/>
       <c r="J61" s="5"/>
     </row>
@@ -2082,7 +2091,7 @@
       <c r="E62" s="31"/>
       <c r="F62" s="30"/>
       <c r="G62" s="31"/>
-      <c r="H62" s="39"/>
+      <c r="H62" s="47"/>
       <c r="I62" s="20"/>
       <c r="J62" s="5"/>
     </row>
@@ -2092,7 +2101,7 @@
       <c r="E63" s="31"/>
       <c r="F63" s="30"/>
       <c r="G63" s="31"/>
-      <c r="H63" s="39"/>
+      <c r="H63" s="47"/>
       <c r="I63" s="20"/>
       <c r="J63" s="5"/>
     </row>
@@ -2102,7 +2111,7 @@
       <c r="E64" s="31"/>
       <c r="F64" s="30"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="39"/>
+      <c r="H64" s="47"/>
       <c r="I64" s="20"/>
       <c r="J64" s="5"/>
     </row>
@@ -2112,7 +2121,7 @@
       <c r="E65" s="31"/>
       <c r="F65" s="30"/>
       <c r="G65" s="31"/>
-      <c r="H65" s="39"/>
+      <c r="H65" s="47"/>
       <c r="I65" s="20"/>
       <c r="J65" s="5"/>
     </row>
@@ -2122,7 +2131,7 @@
       <c r="E66" s="31"/>
       <c r="F66" s="30"/>
       <c r="G66" s="31"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="47"/>
       <c r="I66" s="20"/>
       <c r="J66" s="5"/>
     </row>
@@ -2132,7 +2141,7 @@
       <c r="E67" s="31"/>
       <c r="F67" s="30"/>
       <c r="G67" s="31"/>
-      <c r="H67" s="39"/>
+      <c r="H67" s="47"/>
       <c r="I67" s="20"/>
       <c r="J67" s="5"/>
     </row>
@@ -2142,7 +2151,7 @@
       <c r="E68" s="31"/>
       <c r="F68" s="30"/>
       <c r="G68" s="31"/>
-      <c r="H68" s="39"/>
+      <c r="H68" s="47"/>
       <c r="I68" s="20"/>
       <c r="J68" s="5"/>
     </row>
@@ -2152,7 +2161,7 @@
       <c r="E69" s="31"/>
       <c r="F69" s="30"/>
       <c r="G69" s="31"/>
-      <c r="H69" s="39"/>
+      <c r="H69" s="47"/>
       <c r="I69" s="20"/>
       <c r="J69" s="5"/>
     </row>
@@ -2162,7 +2171,7 @@
       <c r="E70" s="31"/>
       <c r="F70" s="30"/>
       <c r="G70" s="31"/>
-      <c r="H70" s="39"/>
+      <c r="H70" s="47"/>
       <c r="I70" s="20"/>
       <c r="J70" s="5"/>
     </row>
@@ -2172,7 +2181,7 @@
       <c r="E71" s="31"/>
       <c r="F71" s="30"/>
       <c r="G71" s="31"/>
-      <c r="H71" s="39"/>
+      <c r="H71" s="47"/>
       <c r="I71" s="20"/>
       <c r="J71" s="5"/>
     </row>
@@ -2182,7 +2191,7 @@
       <c r="E72" s="31"/>
       <c r="F72" s="30"/>
       <c r="G72" s="31"/>
-      <c r="H72" s="39"/>
+      <c r="H72" s="47"/>
       <c r="I72" s="20"/>
       <c r="J72" s="5"/>
     </row>
@@ -2192,7 +2201,7 @@
       <c r="E73" s="31"/>
       <c r="F73" s="30"/>
       <c r="G73" s="31"/>
-      <c r="H73" s="39"/>
+      <c r="H73" s="47"/>
       <c r="I73" s="20"/>
       <c r="J73" s="5"/>
     </row>
@@ -2202,7 +2211,7 @@
       <c r="E74" s="31"/>
       <c r="F74" s="30"/>
       <c r="G74" s="31"/>
-      <c r="H74" s="39"/>
+      <c r="H74" s="47"/>
       <c r="I74" s="20"/>
       <c r="J74" s="5"/>
     </row>
@@ -2212,7 +2221,7 @@
       <c r="E75" s="31"/>
       <c r="F75" s="30"/>
       <c r="G75" s="31"/>
-      <c r="H75" s="39"/>
+      <c r="H75" s="47"/>
       <c r="I75" s="20"/>
       <c r="J75" s="5"/>
     </row>
@@ -2222,7 +2231,7 @@
       <c r="E76" s="31"/>
       <c r="F76" s="30"/>
       <c r="G76" s="31"/>
-      <c r="H76" s="39"/>
+      <c r="H76" s="47"/>
       <c r="I76" s="20"/>
       <c r="J76" s="5"/>
     </row>
@@ -2232,7 +2241,7 @@
       <c r="E77" s="31"/>
       <c r="F77" s="30"/>
       <c r="G77" s="31"/>
-      <c r="H77" s="39"/>
+      <c r="H77" s="47"/>
       <c r="I77" s="20"/>
       <c r="J77" s="5"/>
     </row>
@@ -2242,7 +2251,7 @@
       <c r="E78" s="31"/>
       <c r="F78" s="30"/>
       <c r="G78" s="31"/>
-      <c r="H78" s="39"/>
+      <c r="H78" s="47"/>
       <c r="I78" s="20"/>
       <c r="J78" s="5"/>
     </row>
@@ -2252,7 +2261,7 @@
       <c r="E79" s="31"/>
       <c r="F79" s="30"/>
       <c r="G79" s="31"/>
-      <c r="H79" s="39"/>
+      <c r="H79" s="47"/>
       <c r="I79" s="20"/>
       <c r="J79" s="5"/>
     </row>
@@ -2262,7 +2271,7 @@
       <c r="E80" s="31"/>
       <c r="F80" s="30"/>
       <c r="G80" s="31"/>
-      <c r="H80" s="39"/>
+      <c r="H80" s="47"/>
       <c r="I80" s="20"/>
       <c r="J80" s="5"/>
     </row>
@@ -2272,7 +2281,7 @@
       <c r="E81" s="31"/>
       <c r="F81" s="30"/>
       <c r="G81" s="31"/>
-      <c r="H81" s="39"/>
+      <c r="H81" s="47"/>
       <c r="I81" s="20"/>
       <c r="J81" s="5"/>
     </row>
@@ -2282,7 +2291,7 @@
       <c r="E82" s="31"/>
       <c r="F82" s="30"/>
       <c r="G82" s="31"/>
-      <c r="H82" s="39"/>
+      <c r="H82" s="47"/>
       <c r="I82" s="20"/>
       <c r="J82" s="5"/>
     </row>
@@ -2292,7 +2301,7 @@
       <c r="E83" s="31"/>
       <c r="F83" s="30"/>
       <c r="G83" s="31"/>
-      <c r="H83" s="39"/>
+      <c r="H83" s="47"/>
       <c r="I83" s="20"/>
       <c r="J83" s="5"/>
     </row>
@@ -2302,7 +2311,7 @@
       <c r="E84" s="31"/>
       <c r="F84" s="30"/>
       <c r="G84" s="31"/>
-      <c r="H84" s="39"/>
+      <c r="H84" s="47"/>
       <c r="I84" s="20"/>
       <c r="J84" s="5"/>
     </row>
@@ -2312,7 +2321,7 @@
       <c r="E85" s="31"/>
       <c r="F85" s="30"/>
       <c r="G85" s="31"/>
-      <c r="H85" s="39"/>
+      <c r="H85" s="47"/>
       <c r="I85" s="20"/>
       <c r="J85" s="5"/>
     </row>
@@ -2322,7 +2331,7 @@
       <c r="E86" s="31"/>
       <c r="F86" s="30"/>
       <c r="G86" s="31"/>
-      <c r="H86" s="39"/>
+      <c r="H86" s="47"/>
       <c r="I86" s="20"/>
       <c r="J86" s="5"/>
     </row>
@@ -2332,7 +2341,7 @@
       <c r="E87" s="31"/>
       <c r="F87" s="30"/>
       <c r="G87" s="31"/>
-      <c r="H87" s="39"/>
+      <c r="H87" s="47"/>
       <c r="I87" s="20"/>
       <c r="J87" s="5"/>
     </row>
@@ -2342,7 +2351,7 @@
       <c r="E88" s="31"/>
       <c r="F88" s="30"/>
       <c r="G88" s="31"/>
-      <c r="H88" s="39"/>
+      <c r="H88" s="47"/>
       <c r="I88" s="20"/>
       <c r="J88" s="5"/>
     </row>
@@ -2352,7 +2361,7 @@
       <c r="E89" s="31"/>
       <c r="F89" s="30"/>
       <c r="G89" s="31"/>
-      <c r="H89" s="39"/>
+      <c r="H89" s="47"/>
       <c r="I89" s="20"/>
       <c r="J89" s="5"/>
     </row>
@@ -2362,7 +2371,7 @@
       <c r="E90" s="31"/>
       <c r="F90" s="30"/>
       <c r="G90" s="31"/>
-      <c r="H90" s="39"/>
+      <c r="H90" s="47"/>
       <c r="I90" s="20"/>
       <c r="J90" s="5"/>
     </row>
@@ -2372,7 +2381,7 @@
       <c r="E91" s="35"/>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
-      <c r="H91" s="35"/>
+      <c r="H91" s="48"/>
       <c r="I91" s="20"/>
       <c r="J91" s="5"/>
     </row>
@@ -2382,7 +2391,7 @@
       <c r="E92" s="35"/>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
-      <c r="H92" s="35"/>
+      <c r="H92" s="48"/>
       <c r="I92" s="20"/>
       <c r="J92" s="5"/>
     </row>
@@ -2392,7 +2401,7 @@
       <c r="E93" s="35"/>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
-      <c r="H93" s="35"/>
+      <c r="H93" s="48"/>
       <c r="I93" s="20"/>
       <c r="J93" s="5"/>
     </row>
@@ -2402,7 +2411,7 @@
       <c r="E94" s="35"/>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
-      <c r="H94" s="35"/>
+      <c r="H94" s="48"/>
       <c r="I94" s="20"/>
       <c r="J94" s="5"/>
     </row>
@@ -2412,7 +2421,7 @@
       <c r="E95" s="35"/>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
-      <c r="H95" s="35"/>
+      <c r="H95" s="48"/>
       <c r="I95" s="20"/>
       <c r="J95" s="5"/>
     </row>
@@ -2422,7 +2431,7 @@
       <c r="E96" s="35"/>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
-      <c r="H96" s="35"/>
+      <c r="H96" s="48"/>
       <c r="I96" s="20"/>
       <c r="J96" s="5"/>
     </row>
@@ -2432,7 +2441,7 @@
       <c r="E97" s="35"/>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
-      <c r="H97" s="35"/>
+      <c r="H97" s="48"/>
       <c r="I97" s="20"/>
       <c r="J97" s="5"/>
     </row>
@@ -2442,7 +2451,7 @@
       <c r="E98" s="35"/>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
-      <c r="H98" s="35"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="20"/>
       <c r="J98" s="5"/>
     </row>
@@ -2452,7 +2461,7 @@
       <c r="E99" s="35"/>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
-      <c r="H99" s="35"/>
+      <c r="H99" s="48"/>
       <c r="I99" s="20"/>
       <c r="J99" s="5"/>
     </row>
@@ -2462,7 +2471,7 @@
       <c r="E100" s="35"/>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
-      <c r="H100" s="35"/>
+      <c r="H100" s="48"/>
       <c r="I100" s="20"/>
       <c r="J100" s="5"/>
     </row>
@@ -2472,9 +2481,78 @@
       <c r="E101" s="19"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
-      <c r="H101" s="19"/>
+      <c r="H101" s="49"/>
       <c r="I101" s="20"/>
       <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="50"/>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="50"/>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H104" s="50"/>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H105" s="50"/>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H106" s="50"/>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H107" s="50"/>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H108" s="50"/>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H109" s="50"/>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H110" s="50"/>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H111" s="50"/>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H112" s="50"/>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H113" s="50"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H114" s="50"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H115" s="50"/>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H116" s="50"/>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H117" s="50"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H118" s="50"/>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H119" s="50"/>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H120" s="50"/>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="50"/>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H122" s="50"/>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="50"/>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H124" s="50"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2525,18 +2603,18 @@
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="10"/>
       <c r="I7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
@@ -2561,10 +2639,10 @@
       <c r="I9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C10" s="10"/>
@@ -2578,7 +2656,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="Q10" s="42"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
@@ -2590,10 +2668,10 @@
       <c r="I11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>
@@ -2612,7 +2690,7 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2620,10 +2698,10 @@
       <c r="I13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C14" s="10"/>
@@ -2656,80 +2734,80 @@
         <v>16</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="10" t="s">
@@ -2810,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D35637-F001-47A8-9DF3-8799DA4DB367}">
   <dimension ref="B1:M115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,13 +2953,13 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="27"/>
       <c r="J6" s="15"/>
       <c r="K6" s="10"/>
